--- a/biology/Microbiologie/Milieu_Hugh_Leifson/Milieu_Hugh_Leifson.xlsx
+++ b/biology/Microbiologie/Milieu_Hugh_Leifson/Milieu_Hugh_Leifson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Détermination de la voie d'attaque des glucides.
 </t>
@@ -537,7 +551,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">- Tryptone .....................................  2   g
 - Bleu de bromothymol .......................... 30   mg
@@ -573,7 +589,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">9,8 g par litre. Autoclavage classique. Le glucide à tester est ajouté avant ou après autoclavage à la concentration finale de 10 g par litre.
 </t>
@@ -604,7 +622,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu est utilisé pour la mise en évidence de la voie d'attaque du glucose. L'observation de l'acidification éventuelle sur toute la hauteur du tube ensemencé en piqûre centrale permet de conclure. L'ensemencement de deux tubes dont un recouvert de vaseline stérile est inutile. Certaines bactéries (anaérobies strictes, coques Gram +) cultivent mal sur ce milieu : on lui préférera alors CTA.
 </t>
